--- a/biology/Botanique/Vigna_luteola/Vigna_luteola.xlsx
+++ b/biology/Botanique/Vigna_luteola/Vigna_luteola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigna luteola est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales d'Amérique, mais désormais à distribution pantropicale. C'est une plante herbacée volubile, vivace à courte durée de vie, aux feuilles trifoliées et aux fleurs papilionacées de couleur jaune. Les graines, relativement riches en protéines, contiennent aussi des facteurs antinutritionnels, tels que acide phytique et inhibiteurs de la trypsine.
 </t>
@@ -513,19 +525,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (17 octobre 2021)[1]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (17 octobre 2021)
 Calopogonium pendunculatum Standl.
 Dolichos gangeticus Roxb.
 Dolichos luteolus Jacq.
 Dolichos niloticus Delile
 Dolichos repens L.
 Orobus trifoliatus Sesse &amp; Moc.
-Phaseolus luteolus (Jacq.) Gagnep. [2]
+Phaseolus luteolus (Jacq.) Gagnep. 
 Phaseolus maritimus Hassk.
 Scytalis helicopus E.Mey.
 Vigna brachystachys Benth.
-Vigna bukobensis Harms[2]
+Vigna bukobensis Harms
 Vigna fischeri Harms
 Vigna glabra Savi
 Vigna helicopus (E.Mey.) Walp.
@@ -534,14 +551,49 @@
 Vigna marina subsp. oblonga sensu Padulosi
 Vigna nigerica A.Chev.
 Vigna oblonga sensu Hook.f.
-Vigna repens var. glabra Kuntze[2]
-Vigna repens var. luteola (Jacq.) Kuntze[2]
+Vigna repens var. glabra Kuntze
+Vigna repens var. luteola (Jacq.) Kuntze
 Vigna repens (L.) Kuntze
 Vigna villosa Savi
-Liste des variétés
-Selon The Plant List            (17 octobre 2021)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vigna_luteola</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vigna_luteola</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (17 octobre 2021) :
 Vigna luteola var. angustifolia (Engelm. &amp; A. Gray) S. Watson
-Selon Tropicos                                           (17 octobre 2021)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 octobre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Vigna luteola var. angustifolia (Engelm. &amp; A. Gray) S. Watson
 Vigna luteola var. luteola</t>
         </is>
